--- a/group2 project/results/res_bus/q_mvar.xlsx
+++ b/group2 project/results/res_bus/q_mvar.xlsx
@@ -421,7 +421,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-58.16486639535083</v>
+        <v>-20.99795418726239</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-82.57139241695404</v>
+        <v>-45.59603536128998</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-55.46804222102423</v>
+        <v>-21.10179198563014</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>-75.4395090341568</v>
+        <v>-41.06186187267303</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-54.07834317366337</v>
+        <v>-21.55464948246708</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -527,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>-70.48239552974701</v>
+        <v>-37.75727462768555</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -562,7 +562,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-53.60159135361801</v>
+        <v>-21.92792841161213</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-68.09179401397705</v>
+        <v>-36.11608040332794</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -609,7 +609,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-53.44864170989672</v>
+        <v>-22.11964205490517</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -621,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>-67.09804916381836</v>
+        <v>-35.42429411411285</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-53.44864170989672</v>
+        <v>-22.11964205490517</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>-67.09804916381836</v>
+        <v>-35.42429411411285</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-53.48340566146658</v>
+        <v>-22.07057130856833</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-67.34121930599213</v>
+        <v>-35.59410583972931</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-54.21198970685896</v>
+        <v>-21.48242981463659</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -762,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>-71.05014264583588</v>
+        <v>-38.14239275455475</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-57.92788581976765</v>
+        <v>-20.98795145568283</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>-82.00729966163635</v>
+        <v>-45.24657070636749</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-64.33319549957241</v>
+        <v>-21.79815971245625</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-95.40487706661224</v>
+        <v>-53.13354885578156</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -891,7 +891,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-68.53012033261552</v>
+        <v>-22.62771894779121</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>-103.0830843448639</v>
+        <v>-57.27001345157623</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-72.39194082458516</v>
+        <v>-23.47091593793789</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>-109.7895925045013</v>
+        <v>-60.65550637245178</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -985,7 +985,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-73.12877869310455</v>
+        <v>-23.6366354565389</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-111.0424696207047</v>
+        <v>-61.26440155506134</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-72.07268653526899</v>
+        <v>-23.39948012117884</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>-109.2444577217102</v>
+        <v>-60.38825237751007</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-72.08258855775262</v>
+        <v>-23.40169217802895</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>-109.2613872289658</v>
+        <v>-60.39657354354858</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-72.14587199770131</v>
+        <v>-23.41583489571281</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>-109.3695509433746</v>
+        <v>-60.44970417022705</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1173,7 +1173,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-68.97241440897778</v>
+        <v>-22.72146045022919</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>-103.8652521371841</v>
+        <v>-57.67579197883606</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-67.19137606520621</v>
+        <v>-22.35007561258658</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>-100.6882022619247</v>
+        <v>-56.00964665412903</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-67.20402690743663</v>
+        <v>-22.35265164940233</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>-100.7110413312912</v>
+        <v>-56.02179384231567</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-72.15200403124595</v>
+        <v>-23.41720580255719</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>-109.3800288438797</v>
+        <v>-60.45484805107117</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1361,7 +1361,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-77.99422818659173</v>
+        <v>-24.74878119468531</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>-119.1675524711609</v>
+        <v>-65.03224408626556</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1408,7 +1408,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-83.32837223572324</v>
+        <v>-25.97044579442127</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>-127.8865730762482</v>
+        <v>-68.72418415546417</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1455,7 +1455,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-85.54561583244754</v>
+        <v>-26.47008051876992</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>-131.4812049865723</v>
+        <v>-70.13933300971985</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-75.2873596331126</v>
+        <v>-24.12734139211216</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>-114.675292134285</v>
+        <v>-62.98786759376526</v>
       </c>
       <c r="G25">
         <v>0</v>

--- a/group2 project/results/res_bus/q_mvar.xlsx
+++ b/group2 project/results/res_bus/q_mvar.xlsx
@@ -421,7 +421,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-20.99795418726239</v>
+        <v>-15.44523978092002</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-45.59603536128998</v>
+        <v>-25.11195135116577</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,10 +442,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>6.797258019447327</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>-78.53172183036804</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-21.10179198563014</v>
+        <v>-17.1990480123427</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>-41.06186187267303</v>
+        <v>-24.08938252925873</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>6.872270703315735</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>-76.51601421833038</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-21.55464948246708</v>
+        <v>-18.80406695003762</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -527,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>-37.75727462768555</v>
+        <v>-23.05302369594574</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,10 +536,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>6.78860878944397</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>-75.03032040596008</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,7 +562,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-21.92792841161213</v>
+        <v>-19.54645468242234</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-36.11608040332794</v>
+        <v>-22.15524387359619</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,10 +583,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>6.56968080997467</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>-74.09579634666443</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,7 +609,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-22.11964205490517</v>
+        <v>-19.80004769015454</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -621,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>-35.42429411411285</v>
+        <v>-21.62751197814941</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,10 +630,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>6.407713055610657</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>-73.61052095890045</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-22.11964205490517</v>
+        <v>-19.80004769015454</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>-35.42429411411285</v>
+        <v>-21.62751197814941</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>6.407713055610657</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>-73.61052095890045</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-22.07057130856833</v>
+        <v>-19.64176719690795</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-35.59410583972931</v>
+        <v>-21.60710525512695</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>6.377492427825928</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>-73.63119733333588</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-21.48242981463659</v>
+        <v>-18.01807480916636</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -762,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>-38.14239275455475</v>
+        <v>-22.17591226100922</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>6.330997347831726</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>-74.57762789726257</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-20.98795145568283</v>
+        <v>-15.25805431506797</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>-45.24657070636749</v>
+        <v>-24.3661572933197</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>6.483354091644287</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>-78.02318370342255</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-21.79815971245625</v>
+        <v>-13.78136061189934</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-53.13354885578156</v>
+        <v>-26.66655802726746</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>6.589540958404541</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>-82.2586430311203</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,7 +891,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-22.62771894779121</v>
+        <v>-13.5017184536905</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>-57.27001345157623</v>
+        <v>-27.65814089775085</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>6.54293966293335</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>-84.33668959140778</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-23.47091593793789</v>
+        <v>-13.71766596963676</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>-60.65550637245178</v>
+        <v>-28.38467574119568</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>6.490947246551514</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>-84.83413124084473</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,7 +985,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-23.6366354565389</v>
+        <v>-13.98665641243042</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-61.26440155506134</v>
+        <v>-28.34670257568359</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>6.41607391834259</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>-83.91497611999512</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-23.39948012117884</v>
+        <v>-14.12430551401349</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>-60.38825237751007</v>
+        <v>-27.88725340366364</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>6.304742097854614</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>-82.89813685417175</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-23.40169217802895</v>
+        <v>-14.24435629204004</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>-60.39657354354858</v>
+        <v>-28.09894490242004</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>6.413556218147278</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>-82.81659340858459</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-23.41583489571281</v>
+        <v>-14.36836242720551</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>-60.44970417022705</v>
+        <v>-28.38948857784271</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>6.554604530334473</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>-82.82983100414276</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,7 +1173,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-22.72146045022919</v>
+        <v>-14.5920262637826</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>-57.67579197883606</v>
+        <v>-27.66289269924164</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,10 +1194,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>6.540995359420776</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>-81.48527276515961</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-22.35007561258658</v>
+        <v>-14.67099467912431</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>-56.00964665412903</v>
+        <v>-27.37504005432129</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,10 +1241,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>6.604041576385498</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>-81.05589663982391</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-22.35265164940233</v>
+        <v>-14.03366148806253</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>-56.02179384231567</v>
+        <v>-27.38587117195129</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>6.591673612594604</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>-82.43313658237457</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-23.41720580255719</v>
+        <v>-13.47106495284288</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>-60.45484805107117</v>
+        <v>-28.7396000623703</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>6.662915945053101</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>-86.33434653282166</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,7 +1361,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-24.74878119468531</v>
+        <v>-13.6531680320013</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>-65.03224408626556</v>
+        <v>-30.26678884029388</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>6.823388814926147</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>-89.25043654441833</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,7 +1408,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-25.97044579442127</v>
+        <v>-13.97864837094039</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>-68.72418415546417</v>
+        <v>-31.57401275634766</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>6.996102929115295</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>-91.5533035993576</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,7 +1455,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-26.47008051876992</v>
+        <v>-14.13984127349045</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>-70.13933300971985</v>
+        <v>-32.1827267408371</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,10 +1476,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>7.11737596988678</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>-92.46497881412506</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-24.12734139211216</v>
+        <v>-13.68327605135119</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>-62.98786759376526</v>
+        <v>-30.50069725513458</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>7.20659077167511</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>-88.27713894844055</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/group2 project/results/res_bus/q_mvar.xlsx
+++ b/group2 project/results/res_bus/q_mvar.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,13 +415,16 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-15.44523978092002</v>
+        <v>-22.04591698911941</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -433,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-25.11195135116577</v>
+        <v>-24.12741959095001</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,7 +448,7 @@
         <v>6.797258019447327</v>
       </c>
       <c r="J2">
-        <v>-78.53172183036804</v>
+        <v>-73.2334007024765</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -462,13 +465,16 @@
       <c r="O2">
         <v>10.94486180817282</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>-5.593819141387939</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-17.1990480123427</v>
+        <v>-24.7944308841802</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -480,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>-24.08938252925873</v>
+        <v>-23.2646222114563</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,7 +498,7 @@
         <v>6.872270703315735</v>
       </c>
       <c r="J3">
-        <v>-76.51601421833038</v>
+        <v>-72.07141840457916</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -509,13 +515,16 @@
       <c r="O3">
         <v>10.94486180817282</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>-5.494320273399353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-18.80406695003762</v>
+        <v>-27.33170924913884</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -527,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>-23.05302369594574</v>
+        <v>-22.35990345478058</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,7 +548,7 @@
         <v>6.78860878944397</v>
       </c>
       <c r="J4">
-        <v>-75.03032040596008</v>
+        <v>-71.29094576835632</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -556,13 +565,16 @@
       <c r="O4">
         <v>10.94486180817282</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>-5.404111623764038</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-19.54645468242234</v>
+        <v>-28.26508462169022</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -574,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-22.15524387359619</v>
+        <v>-21.50527620315552</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,7 +598,7 @@
         <v>6.56968080997467</v>
       </c>
       <c r="J5">
-        <v>-74.09579634666443</v>
+        <v>-70.58675372600555</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -603,13 +615,16 @@
       <c r="O5">
         <v>10.94486180817282</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>-5.344982028007507</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-19.80004769015454</v>
+        <v>-28.66379062037117</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -621,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>-21.62751197814941</v>
+        <v>-21.00119388103485</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,7 +648,7 @@
         <v>6.407713055610657</v>
       </c>
       <c r="J6">
-        <v>-73.61052095890045</v>
+        <v>-70.22795522212982</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -650,13 +665,16 @@
       <c r="O6">
         <v>10.94486180817282</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>-5.302069187164307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-19.80004769015454</v>
+        <v>-28.66379062037117</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -668,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>-21.62751197814941</v>
+        <v>-21.00119388103485</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,7 +698,7 @@
         <v>6.407713055610657</v>
       </c>
       <c r="J7">
-        <v>-73.61052095890045</v>
+        <v>-70.22795522212982</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -697,13 +715,16 @@
       <c r="O7">
         <v>10.94486180817282</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>-5.302069187164307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-19.64176719690795</v>
+        <v>-29.83025425101346</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -715,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-21.60710525512695</v>
+        <v>-21.0909880399704</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,7 +748,7 @@
         <v>6.377492427825928</v>
       </c>
       <c r="J8">
-        <v>-73.63119733333588</v>
+        <v>-70.84387981891632</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -744,13 +765,16 @@
       <c r="O8">
         <v>10.94486180817282</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>-5.245398759841919</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-18.01807480916636</v>
+        <v>-27.1325130720636</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -762,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>-22.17591226100922</v>
+        <v>-21.52540040016174</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,7 +798,7 @@
         <v>6.330997347831726</v>
       </c>
       <c r="J9">
-        <v>-74.57762789726257</v>
+        <v>-71.06725025177002</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -791,13 +815,16 @@
       <c r="O9">
         <v>10.94486180817282</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>-5.283678412437439</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-15.25805431506797</v>
+        <v>-26.2822223998769</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -809,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>-24.3661572933197</v>
+        <v>-23.79081511497498</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,7 +848,7 @@
         <v>6.483354091644287</v>
       </c>
       <c r="J10">
-        <v>-78.02318370342255</v>
+        <v>-74.92584776878357</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -838,13 +865,16 @@
       <c r="O10">
         <v>10.94486180817282</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>-5.680229663848877</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-13.78136061189934</v>
+        <v>-26.6521008630798</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -856,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-26.66655802726746</v>
+        <v>-26.24164712429047</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,7 +898,7 @@
         <v>6.589540958404541</v>
       </c>
       <c r="J11">
-        <v>-82.2586430311203</v>
+        <v>-79.97703671455383</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -885,13 +915,16 @@
       <c r="O11">
         <v>10.94486180817282</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>-7.026389479637146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-13.5017184536905</v>
+        <v>-24.50076244271486</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -903,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>-27.65814089775085</v>
+        <v>-26.98200702667236</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,7 +948,7 @@
         <v>6.54293966293335</v>
       </c>
       <c r="J12">
-        <v>-84.33668959140778</v>
+        <v>-80.71085691452026</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -932,13 +965,16 @@
       <c r="O12">
         <v>10.94486180817282</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>-7.110534429550171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-13.71766596963676</v>
+        <v>-23.20786014291548</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -950,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>-28.38467574119568</v>
+        <v>-27.50839161872864</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,7 +998,7 @@
         <v>6.490947246551514</v>
       </c>
       <c r="J13">
-        <v>-84.83413124084473</v>
+        <v>-80.14103960990906</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -979,13 +1015,16 @@
       <c r="O13">
         <v>10.94486180817282</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>-6.927950620651245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-13.98665641243042</v>
+        <v>-21.34371489607133</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -997,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-28.34670257568359</v>
+        <v>-27.23237586021423</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,7 +1048,7 @@
         <v>6.41607391834259</v>
       </c>
       <c r="J14">
-        <v>-83.91497611999512</v>
+        <v>-77.94922149181366</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1026,13 +1065,16 @@
       <c r="O14">
         <v>10.94486180817282</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>-6.360029339790344</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-14.12430551401349</v>
+        <v>-20.68344172197703</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1044,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>-27.88725340366364</v>
+        <v>-26.71162486076355</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,7 +1098,7 @@
         <v>6.304742097854614</v>
       </c>
       <c r="J15">
-        <v>-82.89813685417175</v>
+        <v>-76.60255694389343</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1073,13 +1115,16 @@
       <c r="O15">
         <v>10.94486180817282</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>-6.163727045059204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-14.24435629204004</v>
+        <v>-19.93287553018945</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1091,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>-28.09894490242004</v>
+        <v>-26.84854400157928</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,7 +1148,7 @@
         <v>6.413556218147278</v>
       </c>
       <c r="J16">
-        <v>-82.81659340858459</v>
+        <v>-76.12134563922882</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1120,13 +1165,16 @@
       <c r="O16">
         <v>10.94486180817282</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>-6.127188086509705</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-14.36836242720551</v>
+        <v>-18.83105926312214</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1138,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>-28.38948857784271</v>
+        <v>-27.04621767997742</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,7 +1198,7 @@
         <v>6.554604530334473</v>
       </c>
       <c r="J17">
-        <v>-82.82983100414276</v>
+        <v>-75.63832032680511</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1167,13 +1215,16 @@
       <c r="O17">
         <v>10.94486180817282</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>-6.195131063461304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-14.5920262637826</v>
+        <v>-18.83786660823694</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1185,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>-27.66289269924164</v>
+        <v>-26.35514676570892</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,7 +1248,7 @@
         <v>6.540995359420776</v>
       </c>
       <c r="J18">
-        <v>-81.48527276515961</v>
+        <v>-74.4776314496994</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1214,13 +1265,16 @@
       <c r="O18">
         <v>10.94486180817282</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>-6.169877886772156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-14.67099467912431</v>
+        <v>-20.51944060900928</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1232,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>-27.37504005432129</v>
+        <v>-26.20586907863617</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,7 +1298,7 @@
         <v>6.604041576385498</v>
       </c>
       <c r="J19">
-        <v>-81.05589663982391</v>
+        <v>-74.78732120990753</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1261,13 +1315,16 @@
       <c r="O19">
         <v>10.94486180817282</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>-5.983663320541382</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-14.03366148806253</v>
+        <v>-23.2473068022091</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1279,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>-27.38587117195129</v>
+        <v>-26.51388263702393</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,7 +1348,7 @@
         <v>6.591673612594604</v>
       </c>
       <c r="J20">
-        <v>-82.43313658237457</v>
+        <v>-77.75651276111603</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1308,13 +1365,16 @@
       <c r="O20">
         <v>10.94486180817282</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>-6.28538715839386</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-13.47106495284288</v>
+        <v>-26.3800580791119</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1326,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>-28.7396000623703</v>
+        <v>-28.32558858394623</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,7 +1398,7 @@
         <v>6.662915945053101</v>
       </c>
       <c r="J21">
-        <v>-86.33434653282166</v>
+        <v>-84.1165554523468</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1355,13 +1415,16 @@
       <c r="O21">
         <v>10.94486180817282</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>-8.51779842376709</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-13.6531680320013</v>
+        <v>-23.26120830383343</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1373,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>-30.26678884029388</v>
+        <v>-29.39230501651764</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,7 +1448,7 @@
         <v>6.823388814926147</v>
       </c>
       <c r="J22">
-        <v>-89.25043654441833</v>
+        <v>-84.57307636737823</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1402,13 +1465,16 @@
       <c r="O22">
         <v>10.94486180817282</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>-8.124462604522705</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-13.97864837094039</v>
+        <v>-21.94875206209281</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1420,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>-31.57401275634766</v>
+        <v>-30.46845328807831</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,7 +1498,7 @@
         <v>6.996102929115295</v>
       </c>
       <c r="J23">
-        <v>-91.5533035993576</v>
+        <v>-85.64749419689178</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1449,13 +1515,16 @@
       <c r="O23">
         <v>10.94486180817282</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>-8.172829270362854</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-14.13984127349045</v>
+        <v>-21.18066955037034</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1467,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>-32.1827267408371</v>
+        <v>-30.94377708435059</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,7 +1548,7 @@
         <v>7.11737596988678</v>
       </c>
       <c r="J24">
-        <v>-92.46497881412506</v>
+        <v>-85.85007953643799</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1496,13 +1565,16 @@
       <c r="O24">
         <v>10.94486180817282</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>-8.025774478912354</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-13.68327605135119</v>
+        <v>-20.51792846396597</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1514,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>-30.50069725513458</v>
+        <v>-29.27201342582703</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,7 +1598,7 @@
         <v>7.20659077167511</v>
       </c>
       <c r="J25">
-        <v>-88.27713894844055</v>
+        <v>-81.70289242267609</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1542,6 +1614,9 @@
       </c>
       <c r="O25">
         <v>10.94486180817282</v>
+      </c>
+      <c r="P25">
+        <v>-6.71548056602478</v>
       </c>
     </row>
   </sheetData>

--- a/group2 project/results/res_bus/q_mvar.xlsx
+++ b/group2 project/results/res_bus/q_mvar.xlsx
@@ -424,7 +424,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-22.04591698911941</v>
+        <v>-12.79269185335556</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-24.12741959095001</v>
+        <v>-0.4683737754821777</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>6.797258019447327</v>
       </c>
       <c r="J2">
-        <v>-73.2334007024765</v>
+        <v>-52.03244209289551</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>-51.36305797100067</v>
       </c>
       <c r="L2">
         <v>10.94486180817282</v>
@@ -466,7 +466,7 @@
         <v>10.94486180817282</v>
       </c>
       <c r="P2">
-        <v>-5.593819141387939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -474,7 +474,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-24.7944308841802</v>
+        <v>-14.66740287952553</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -486,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>-23.2646222114563</v>
+        <v>-0.2146549224853516</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>6.872270703315735</v>
       </c>
       <c r="J3">
-        <v>-72.07141840457916</v>
+        <v>-50.91223669052124</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>-49.98582863807678</v>
       </c>
       <c r="L3">
         <v>10.94486180817282</v>
@@ -516,7 +516,7 @@
         <v>10.94486180817282</v>
       </c>
       <c r="P3">
-        <v>-5.494320273399353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -524,7 +524,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-27.33170924913884</v>
+        <v>-16.32215975374947</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>-22.35990345478058</v>
+        <v>0.188753604888916</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>6.78860878944397</v>
       </c>
       <c r="J4">
-        <v>-71.29094576835632</v>
+        <v>-50.12586057186127</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>-48.80747520923615</v>
       </c>
       <c r="L4">
         <v>10.94486180817282</v>
@@ -566,7 +566,7 @@
         <v>10.94486180817282</v>
       </c>
       <c r="P4">
-        <v>-5.404111623764038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -574,7 +574,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-28.26508462169022</v>
+        <v>-17.14049156495162</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-21.50527620315552</v>
+        <v>0.6635698080062866</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>6.56968080997467</v>
       </c>
       <c r="J5">
-        <v>-70.58675372600555</v>
+        <v>-49.66577124595642</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>-47.96909201145172</v>
       </c>
       <c r="L5">
         <v>10.94486180817282</v>
@@ -616,7 +616,7 @@
         <v>10.94486180817282</v>
       </c>
       <c r="P5">
-        <v>-5.344982028007507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -624,7 +624,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-28.66379062037117</v>
+        <v>-17.44022409110903</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>-21.00119388103485</v>
+        <v>0.9703726768493652</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -648,10 +648,10 @@
         <v>6.407713055610657</v>
       </c>
       <c r="J6">
-        <v>-70.22795522212982</v>
+        <v>-49.42920315265656</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>-47.5215904712677</v>
       </c>
       <c r="L6">
         <v>10.94486180817282</v>
@@ -666,7 +666,7 @@
         <v>10.94486180817282</v>
       </c>
       <c r="P6">
-        <v>-5.302069187164307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -674,7 +674,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-28.66379062037117</v>
+        <v>-17.44022409110903</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>-21.00119388103485</v>
+        <v>0.9703726768493652</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -698,10 +698,10 @@
         <v>6.407713055610657</v>
       </c>
       <c r="J7">
-        <v>-70.22795522212982</v>
+        <v>-49.42920315265656</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>-47.5215904712677</v>
       </c>
       <c r="L7">
         <v>10.94486180817282</v>
@@ -716,7 +716,7 @@
         <v>10.94486180817282</v>
       </c>
       <c r="P7">
-        <v>-5.302069187164307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -724,7 +724,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-29.83025425101346</v>
+        <v>-17.19909895643877</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-21.0909880399704</v>
+        <v>1.00890839099884</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -748,10 +748,10 @@
         <v>6.377492427825928</v>
       </c>
       <c r="J8">
-        <v>-70.84387981891632</v>
+        <v>-49.39728736877441</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>-47.57865297794342</v>
       </c>
       <c r="L8">
         <v>10.94486180817282</v>
@@ -766,7 +766,7 @@
         <v>10.94486180817282</v>
       </c>
       <c r="P8">
-        <v>-5.245398759841919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -774,7 +774,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-27.1325130720636</v>
+        <v>-15.60885953911156</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>-21.52540040016174</v>
+        <v>0.8633905649185181</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -798,10 +798,10 @@
         <v>6.330997347831726</v>
       </c>
       <c r="J9">
-        <v>-71.06725025177002</v>
+        <v>-49.90079128742218</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>-48.33891260623932</v>
       </c>
       <c r="L9">
         <v>10.94486180817282</v>
@@ -816,7 +816,7 @@
         <v>10.94486180817282</v>
       </c>
       <c r="P9">
-        <v>-5.283678412437439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -824,7 +824,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-26.2822223998769</v>
+        <v>-12.42417910005065</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>-23.79081511497498</v>
+        <v>0.05902183055877686</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -848,10 +848,10 @@
         <v>6.483354091644287</v>
       </c>
       <c r="J10">
-        <v>-74.92584776878357</v>
+        <v>-51.69343400001526</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>-51.038978099823</v>
       </c>
       <c r="L10">
         <v>10.94486180817282</v>
@@ -866,7 +866,7 @@
         <v>10.94486180817282</v>
       </c>
       <c r="P10">
-        <v>-5.680229663848877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -874,7 +874,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-26.6521008630798</v>
+        <v>-10.41985032373145</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-26.24164712429047</v>
+        <v>-0.7312426567077637</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>6.589540958404541</v>
       </c>
       <c r="J11">
-        <v>-79.97703671455383</v>
+        <v>-54.10068416595459</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>-53.99981880187988</v>
       </c>
       <c r="L11">
         <v>10.94486180817282</v>
@@ -916,7 +916,7 @@
         <v>10.94486180817282</v>
       </c>
       <c r="P11">
-        <v>-7.026389479637146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -924,7 +924,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-24.50076244271486</v>
+        <v>-9.926350856069121</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>-26.98200702667236</v>
+        <v>-0.9914926290512085</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -948,10 +948,10 @@
         <v>6.54293966293335</v>
       </c>
       <c r="J12">
-        <v>-80.71085691452026</v>
+        <v>-55.2924941778183</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>-55.35694062709808</v>
       </c>
       <c r="L12">
         <v>10.94486180817282</v>
@@ -966,7 +966,7 @@
         <v>10.94486180817282</v>
       </c>
       <c r="P12">
-        <v>-7.110534429550171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -974,7 +974,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-23.20786014291548</v>
+        <v>-9.867703311871537</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>-27.50839161872864</v>
+        <v>-1.153625845909119</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -998,10 +998,10 @@
         <v>6.490947246551514</v>
       </c>
       <c r="J13">
-        <v>-80.14103960990906</v>
+        <v>-55.16757833957672</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>-56.74412965774536</v>
       </c>
       <c r="L13">
         <v>10.94486180817282</v>
@@ -1016,7 +1016,7 @@
         <v>10.94486180817282</v>
       </c>
       <c r="P13">
-        <v>-6.927950620651245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1024,7 +1024,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-21.34371489607133</v>
+        <v>-10.05449223395772</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-27.23237586021423</v>
+        <v>-1.06847357749939</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1048,10 +1048,10 @@
         <v>6.41607391834259</v>
       </c>
       <c r="J14">
-        <v>-77.94922149181366</v>
+        <v>-54.23708128929138</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>-57.05517053604126</v>
       </c>
       <c r="L14">
         <v>10.94486180817282</v>
@@ -1066,7 +1066,7 @@
         <v>10.94486180817282</v>
       </c>
       <c r="P14">
-        <v>-6.360029339790344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1074,7 +1074,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-20.68344172197703</v>
+        <v>-10.20583456836175</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>-26.71162486076355</v>
+        <v>-0.8268295526504517</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>6.304742097854614</v>
       </c>
       <c r="J15">
-        <v>-76.60255694389343</v>
+        <v>-53.48076021671295</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>-56.70557487010956</v>
       </c>
       <c r="L15">
         <v>10.94486180817282</v>
@@ -1116,7 +1116,7 @@
         <v>10.94486180817282</v>
       </c>
       <c r="P15">
-        <v>-6.163727045059204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1124,7 +1124,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-19.93287553018945</v>
+        <v>-10.32082509441693</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>-26.84854400157928</v>
+        <v>-0.9876843690872192</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>6.413556218147278</v>
       </c>
       <c r="J16">
-        <v>-76.12134563922882</v>
+        <v>-53.35074162483215</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>-56.82205438613892</v>
       </c>
       <c r="L16">
         <v>10.94486180817282</v>
@@ -1166,7 +1166,7 @@
         <v>10.94486180817282</v>
       </c>
       <c r="P16">
-        <v>-6.127188086509705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1174,7 +1174,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-18.83105926312214</v>
+        <v>-10.45815142421361</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>-27.04621767997742</v>
+        <v>-1.203553080558777</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>6.554604530334473</v>
       </c>
       <c r="J17">
-        <v>-75.63832032680511</v>
+        <v>-53.28913247585297</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>-56.95094799995422</v>
       </c>
       <c r="L17">
         <v>10.94486180817282</v>
@@ -1216,7 +1216,7 @@
         <v>10.94486180817282</v>
       </c>
       <c r="P17">
-        <v>-6.195131063461304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1224,7 +1224,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-18.83786660823694</v>
+        <v>-10.81174793976038</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1236,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>-26.35514676570892</v>
+        <v>-0.9704313278198242</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1248,10 +1248,10 @@
         <v>6.540995359420776</v>
       </c>
       <c r="J18">
-        <v>-74.4776314496994</v>
+        <v>-52.50882244110107</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>-55.951296210289</v>
       </c>
       <c r="L18">
         <v>10.94486180817282</v>
@@ -1266,7 +1266,7 @@
         <v>10.94486180817282</v>
       </c>
       <c r="P18">
-        <v>-6.169877886772156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1274,7 +1274,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-20.51944060900928</v>
+        <v>-10.93780653772114</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>-26.20586907863617</v>
+        <v>-0.9378607273101807</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1298,10 +1298,10 @@
         <v>6.604041576385498</v>
       </c>
       <c r="J19">
-        <v>-74.78732120990753</v>
+        <v>-52.36316180229187</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>-55.45106971263885</v>
       </c>
       <c r="L19">
         <v>10.94486180817282</v>
@@ -1316,7 +1316,7 @@
         <v>10.94486180817282</v>
       </c>
       <c r="P19">
-        <v>-5.983663320541382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1324,7 +1324,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-23.2473068022091</v>
+        <v>-10.42864107646778</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>-26.51388263702393</v>
+        <v>-0.9415686130523682</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>6.591673612594604</v>
       </c>
       <c r="J20">
-        <v>-77.75651276111603</v>
+        <v>-53.70649564266205</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>-55.21367824077606</v>
       </c>
       <c r="L20">
         <v>10.94486180817282</v>
@@ -1366,7 +1366,7 @@
         <v>10.94486180817282</v>
       </c>
       <c r="P20">
-        <v>-6.28538715839386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1374,7 +1374,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-26.3800580791119</v>
+        <v>-9.639453442953936</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>-28.32558858394623</v>
+        <v>-1.422014474868774</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1398,10 +1398,10 @@
         <v>6.662915945053101</v>
       </c>
       <c r="J21">
-        <v>-84.1165554523468</v>
+        <v>-56.50765681266785</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>-56.70045006275177</v>
       </c>
       <c r="L21">
         <v>10.94486180817282</v>
@@ -1416,7 +1416,7 @@
         <v>10.94486180817282</v>
       </c>
       <c r="P21">
-        <v>-8.51779842376709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1424,7 +1424,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-23.26120830383343</v>
+        <v>-9.58130524808621</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>-29.39230501651764</v>
+        <v>-2.033733129501343</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1448,10 +1448,10 @@
         <v>6.823388814926147</v>
       </c>
       <c r="J22">
-        <v>-84.57307636737823</v>
+        <v>-58.28977632522583</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>-58.28019154071808</v>
       </c>
       <c r="L22">
         <v>10.94486180817282</v>
@@ -1466,7 +1466,7 @@
         <v>10.94486180817282</v>
       </c>
       <c r="P22">
-        <v>-8.124462604522705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1474,7 +1474,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-21.94875206209281</v>
+        <v>-9.665632447871758</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>-30.46845328807831</v>
+        <v>-2.585808873176575</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1498,10 +1498,10 @@
         <v>6.996102929115295</v>
       </c>
       <c r="J23">
-        <v>-85.64749419689178</v>
+        <v>-59.66172957420349</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>-59.6612788438797</v>
       </c>
       <c r="L23">
         <v>10.94486180817282</v>
@@ -1516,7 +1516,7 @@
         <v>10.94486180817282</v>
       </c>
       <c r="P23">
-        <v>-8.172829270362854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1524,7 +1524,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-21.18066955037034</v>
+        <v>-9.736240638365643</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>-30.94377708435059</v>
+        <v>-2.881602048873901</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1548,10 +1548,10 @@
         <v>7.11737596988678</v>
       </c>
       <c r="J24">
-        <v>-85.85007953643799</v>
+        <v>-60.18990862369537</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>-60.22307360172272</v>
       </c>
       <c r="L24">
         <v>10.94486180817282</v>
@@ -1566,7 +1566,7 @@
         <v>10.94486180817282</v>
       </c>
       <c r="P24">
-        <v>-8.025774478912354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1574,7 +1574,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-20.51792846396597</v>
+        <v>-9.824823920217796</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>-29.27201342582703</v>
+        <v>-2.467630743980408</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1598,10 +1598,10 @@
         <v>7.20659077167511</v>
       </c>
       <c r="J25">
-        <v>-81.70289242267609</v>
+        <v>-57.61111438274384</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>-57.81702053546906</v>
       </c>
       <c r="L25">
         <v>10.94486180817282</v>
@@ -1616,7 +1616,7 @@
         <v>10.94486180817282</v>
       </c>
       <c r="P25">
-        <v>-6.71548056602478</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/group2 project/results/res_bus/q_mvar.xlsx
+++ b/group2 project/results/res_bus/q_mvar.xlsx
@@ -424,7 +424,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-12.79269185335556</v>
+        <v>-11.61609041642555</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-0.4683737754821777</v>
+        <v>-0.3808635473251343</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>6.797258019447327</v>
       </c>
       <c r="J2">
-        <v>-52.03244209289551</v>
+        <v>-51.60860252380371</v>
       </c>
       <c r="K2">
-        <v>-51.36305797100067</v>
+        <v>-52.35033583641052</v>
       </c>
       <c r="L2">
         <v>10.94486180817282</v>
@@ -474,7 +474,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-14.66740287952553</v>
+        <v>-13.48009934019865</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -486,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>-0.2146549224853516</v>
+        <v>-0.1282483339309692</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>6.872270703315735</v>
       </c>
       <c r="J3">
-        <v>-50.91223669052124</v>
+        <v>-50.4172728061676</v>
       </c>
       <c r="K3">
-        <v>-49.98582863807678</v>
+        <v>-50.74892771244049</v>
       </c>
       <c r="L3">
         <v>10.94486180817282</v>
@@ -524,7 +524,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-16.32215975374947</v>
+        <v>-15.17550054018648</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.188753604888916</v>
+        <v>0.2709441184997559</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>6.78860878944397</v>
       </c>
       <c r="J4">
-        <v>-50.12586057186127</v>
+        <v>-49.61408925056458</v>
       </c>
       <c r="K4">
-        <v>-48.80747520923615</v>
+        <v>-49.4236820936203</v>
       </c>
       <c r="L4">
         <v>10.94486180817282</v>
@@ -574,7 +574,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-17.14049156495162</v>
+        <v>-15.9793464043189</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6635698080062866</v>
+        <v>0.7460058927536011</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>6.56968080997467</v>
       </c>
       <c r="J5">
-        <v>-49.66577124595642</v>
+        <v>-49.13628923892975</v>
       </c>
       <c r="K5">
-        <v>-47.96909201145172</v>
+        <v>-48.54786038398743</v>
       </c>
       <c r="L5">
         <v>10.94486180817282</v>
@@ -624,7 +624,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-17.44022409110903</v>
+        <v>-16.26560880342163</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9703726768493652</v>
+        <v>1.053337335586548</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -648,10 +648,10 @@
         <v>6.407713055610657</v>
       </c>
       <c r="J6">
-        <v>-49.42920315265656</v>
+        <v>-48.89055645465851</v>
       </c>
       <c r="K6">
-        <v>-47.5215904712677</v>
+        <v>-48.0921596288681</v>
       </c>
       <c r="L6">
         <v>10.94486180817282</v>
@@ -674,7 +674,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-17.44022409110903</v>
+        <v>-16.26560880342163</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9703726768493652</v>
+        <v>1.053337335586548</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -698,10 +698,10 @@
         <v>6.407713055610657</v>
       </c>
       <c r="J7">
-        <v>-49.42920315265656</v>
+        <v>-48.89055645465851</v>
       </c>
       <c r="K7">
-        <v>-47.5215904712677</v>
+        <v>-48.0921596288681</v>
       </c>
       <c r="L7">
         <v>10.94486180817282</v>
@@ -724,7 +724,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-17.19909895643877</v>
+        <v>-16.10616436612236</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.00890839099884</v>
+        <v>1.086010813713074</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -748,10 +748,10 @@
         <v>6.377492427825928</v>
       </c>
       <c r="J8">
-        <v>-49.39728736877441</v>
+        <v>-48.89927268028259</v>
       </c>
       <c r="K8">
-        <v>-47.57865297794342</v>
+        <v>-48.11897432804108</v>
       </c>
       <c r="L8">
         <v>10.94486180817282</v>
@@ -774,7 +774,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-15.60885953911156</v>
+        <v>-14.4238178851167</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8633905649185181</v>
+        <v>0.9476732015609741</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -798,10 +798,10 @@
         <v>6.330997347831726</v>
       </c>
       <c r="J9">
-        <v>-49.90079128742218</v>
+        <v>-49.38924181461334</v>
       </c>
       <c r="K9">
-        <v>-48.33891260623932</v>
+        <v>-49.02147305011749</v>
       </c>
       <c r="L9">
         <v>10.94486180817282</v>
@@ -824,7 +824,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-12.42417910005065</v>
+        <v>-11.46589212457798</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.05902183055877686</v>
+        <v>0.1292674541473389</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -848,10 +848,10 @@
         <v>6.483354091644287</v>
       </c>
       <c r="J10">
-        <v>-51.69343400001526</v>
+        <v>-51.36069297790527</v>
       </c>
       <c r="K10">
-        <v>-51.038978099823</v>
+        <v>-51.87237930297852</v>
       </c>
       <c r="L10">
         <v>10.94486180817282</v>
@@ -874,7 +874,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-10.41985032373145</v>
+        <v>-9.766161981559435</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-0.7312426567077637</v>
+        <v>-0.6806015968322754</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>6.589540958404541</v>
       </c>
       <c r="J11">
-        <v>-54.10068416595459</v>
+        <v>-53.98349905014038</v>
       </c>
       <c r="K11">
-        <v>-53.99981880187988</v>
+        <v>-54.9493613243103</v>
       </c>
       <c r="L11">
         <v>10.94486180817282</v>
@@ -924,7 +924,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-9.926350856069121</v>
+        <v>-9.375401323830147</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>-0.9914926290512085</v>
+        <v>-0.9471328258514404</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -948,10 +948,10 @@
         <v>6.54293966293335</v>
       </c>
       <c r="J12">
-        <v>-55.2924941778183</v>
+        <v>-55.27644121646881</v>
       </c>
       <c r="K12">
-        <v>-55.35694062709808</v>
+        <v>-56.44125318527222</v>
       </c>
       <c r="L12">
         <v>10.94486180817282</v>
@@ -974,7 +974,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-9.867703311871537</v>
+        <v>-9.506691000926139</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>-1.153625845909119</v>
+        <v>-1.12610924243927</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -998,10 +998,10 @@
         <v>6.490947246551514</v>
       </c>
       <c r="J13">
-        <v>-55.16757833957672</v>
+        <v>-55.19175744056702</v>
       </c>
       <c r="K13">
-        <v>-56.74412965774536</v>
+        <v>-57.56403756141663</v>
       </c>
       <c r="L13">
         <v>10.94486180817282</v>
@@ -1024,7 +1024,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-10.05449223395772</v>
+        <v>-9.76961508686054</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-1.06847357749939</v>
+        <v>-1.048430442810059</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1048,10 +1048,10 @@
         <v>6.41607391834259</v>
       </c>
       <c r="J14">
-        <v>-54.23708128929138</v>
+        <v>-54.24193513393402</v>
       </c>
       <c r="K14">
-        <v>-57.05517053604126</v>
+        <v>-57.64688014984131</v>
       </c>
       <c r="L14">
         <v>10.94486180817282</v>
@@ -1074,7 +1074,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-10.20583456836175</v>
+        <v>-9.941163890847974</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>-0.8268295526504517</v>
+        <v>-0.808897852897644</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>6.304742097854614</v>
       </c>
       <c r="J15">
-        <v>-53.48076021671295</v>
+        <v>-53.47002398967743</v>
       </c>
       <c r="K15">
-        <v>-56.70557487010956</v>
+        <v>-57.20019900798798</v>
       </c>
       <c r="L15">
         <v>10.94486180817282</v>
@@ -1124,7 +1124,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-10.32082509441693</v>
+        <v>-10.05301871215602</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>-0.9876843690872192</v>
+        <v>-0.9695695638656616</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>6.413556218147278</v>
       </c>
       <c r="J16">
-        <v>-53.35074162483215</v>
+        <v>-53.33314919471741</v>
       </c>
       <c r="K16">
-        <v>-56.82205438613892</v>
+        <v>-57.3012284040451</v>
       </c>
       <c r="L16">
         <v>10.94486180817282</v>
@@ -1174,7 +1174,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-10.45815142421361</v>
+        <v>-10.16484558789693</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>-1.203553080558777</v>
+        <v>-1.183626055717468</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>6.554604530334473</v>
       </c>
       <c r="J17">
-        <v>-53.28913247585297</v>
+        <v>-53.26251769065857</v>
       </c>
       <c r="K17">
-        <v>-56.95094799995422</v>
+        <v>-57.4533154964447</v>
       </c>
       <c r="L17">
         <v>10.94486180817282</v>
@@ -1224,7 +1224,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-10.81174793976038</v>
+        <v>-10.46309461325495</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1236,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>-0.9704313278198242</v>
+        <v>-0.9467613697052002</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1248,10 +1248,10 @@
         <v>6.540995359420776</v>
       </c>
       <c r="J18">
-        <v>-52.50882244110107</v>
+        <v>-52.44827771186829</v>
       </c>
       <c r="K18">
-        <v>-55.951296210289</v>
+        <v>-56.45097672939301</v>
       </c>
       <c r="L18">
         <v>10.94486180817282</v>
@@ -1274,7 +1274,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-10.93780653772114</v>
+        <v>-10.5806766469284</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>-0.9378607273101807</v>
+        <v>-0.9132874011993408</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1298,10 +1298,10 @@
         <v>6.604041576385498</v>
       </c>
       <c r="J19">
-        <v>-52.36316180229187</v>
+        <v>-52.28996860980988</v>
       </c>
       <c r="K19">
-        <v>-55.45106971263885</v>
+        <v>-55.9271422624588</v>
       </c>
       <c r="L19">
         <v>10.94486180817282</v>
@@ -1324,7 +1324,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-10.42864107646778</v>
+        <v>-9.942172894986015</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>-0.9415686130523682</v>
+        <v>-0.9057048559188843</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>6.591673612594604</v>
       </c>
       <c r="J20">
-        <v>-53.70649564266205</v>
+        <v>-53.63475215435028</v>
       </c>
       <c r="K20">
-        <v>-55.21367824077606</v>
+        <v>-55.96534729003906</v>
       </c>
       <c r="L20">
         <v>10.94486180817282</v>
@@ -1374,7 +1374,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-9.639453442953936</v>
+        <v>-9.24502004647934</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>-1.422014474868774</v>
+        <v>-1.388172507286072</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1398,10 +1398,10 @@
         <v>6.662915945053101</v>
       </c>
       <c r="J21">
-        <v>-56.50765681266785</v>
+        <v>-56.5741879940033</v>
       </c>
       <c r="K21">
-        <v>-56.70045006275177</v>
+        <v>-57.74955999851227</v>
       </c>
       <c r="L21">
         <v>10.94486180817282</v>
@@ -1424,7 +1424,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-9.58130524808621</v>
+        <v>-9.283099508225177</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>-2.033733129501343</v>
+        <v>-2.003084540367126</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1448,10 +1448,10 @@
         <v>6.823388814926147</v>
       </c>
       <c r="J22">
-        <v>-58.28977632522583</v>
+        <v>-58.49073386192322</v>
       </c>
       <c r="K22">
-        <v>-58.28019154071808</v>
+        <v>-59.606818318367</v>
       </c>
       <c r="L22">
         <v>10.94486180817282</v>
@@ -1474,7 +1474,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-9.665632447871758</v>
+        <v>-9.488988295630179</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>-2.585808873176575</v>
+        <v>-2.561402678489685</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1498,10 +1498,10 @@
         <v>6.996102929115295</v>
       </c>
       <c r="J23">
-        <v>-59.66172957420349</v>
+        <v>-59.97168600559235</v>
       </c>
       <c r="K23">
-        <v>-59.6612788438797</v>
+        <v>-61.12395787239075</v>
       </c>
       <c r="L23">
         <v>10.94486180817282</v>
@@ -1524,7 +1524,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-9.736240638365643</v>
+        <v>-9.600304425980539</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>-2.881602048873901</v>
+        <v>-2.858789205551147</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1548,10 +1548,10 @@
         <v>7.11737596988678</v>
       </c>
       <c r="J24">
-        <v>-60.18990862369537</v>
+        <v>-60.54090583324432</v>
       </c>
       <c r="K24">
-        <v>-60.22307360172272</v>
+        <v>-61.75127637386322</v>
       </c>
       <c r="L24">
         <v>10.94486180817282</v>
@@ -1574,7 +1574,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-9.824823920217796</v>
+        <v>-9.34320657814942</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>-2.467630743980408</v>
+        <v>-2.422275543212891</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1598,10 +1598,10 @@
         <v>7.20659077167511</v>
       </c>
       <c r="J25">
-        <v>-57.61111438274384</v>
+        <v>-57.7165333032608</v>
       </c>
       <c r="K25">
-        <v>-57.81702053546906</v>
+        <v>-59.21585619449615</v>
       </c>
       <c r="L25">
         <v>10.94486180817282</v>

--- a/group2 project/results/res_bus/q_mvar.xlsx
+++ b/group2 project/results/res_bus/q_mvar.xlsx
@@ -424,7 +424,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-11.61609041642555</v>
+        <v>19.07577633059918</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-0.3808635473251343</v>
+        <v>63.22741186618805</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>6.797258019447327</v>
+        <v>15.05842864513397</v>
       </c>
       <c r="J2">
-        <v>-51.60860252380371</v>
+        <v>30.88839161396027</v>
       </c>
       <c r="K2">
-        <v>-52.35033583641052</v>
+        <v>16.64553451538086</v>
       </c>
       <c r="L2">
         <v>10.94486180817282</v>
@@ -474,7 +474,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-13.48009934019865</v>
+        <v>16.85542519117371</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -486,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>-0.1282483339309692</v>
+        <v>63.63942337036133</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>6.872270703315735</v>
+        <v>15.13898193836212</v>
       </c>
       <c r="J3">
-        <v>-50.4172728061676</v>
+        <v>32.20508885383606</v>
       </c>
       <c r="K3">
-        <v>-50.74892771244049</v>
+        <v>18.5420640707016</v>
       </c>
       <c r="L3">
         <v>10.94486180817282</v>
@@ -524,7 +524,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-15.17550054018648</v>
+        <v>16.98061855294873</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.2709441184997559</v>
+        <v>63.99045717716217</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>6.78860878944397</v>
+        <v>15.04914534091949</v>
       </c>
       <c r="J4">
-        <v>-49.61408925056458</v>
+        <v>33.32949483394623</v>
       </c>
       <c r="K4">
-        <v>-49.4236820936203</v>
+        <v>18.30558180809021</v>
       </c>
       <c r="L4">
         <v>10.94486180817282</v>
@@ -574,7 +574,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-15.9793464043189</v>
+        <v>16.87606567061084</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7460058927536011</v>
+        <v>64.19250726699829</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>6.56968080997467</v>
+        <v>14.81450164318085</v>
       </c>
       <c r="J5">
-        <v>-49.13628923892975</v>
+        <v>33.91446316242218</v>
       </c>
       <c r="K5">
-        <v>-48.54786038398743</v>
+        <v>18.52396762371063</v>
       </c>
       <c r="L5">
         <v>10.94486180817282</v>
@@ -624,7 +624,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-16.26560880342163</v>
+        <v>16.64085564568813</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.053337335586548</v>
+        <v>64.28613674640656</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -645,13 +645,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>6.407713055610657</v>
+        <v>14.64131593704224</v>
       </c>
       <c r="J6">
-        <v>-48.89055645465851</v>
+        <v>34.15962672233582</v>
       </c>
       <c r="K6">
-        <v>-48.0921596288681</v>
+        <v>18.87422263622284</v>
       </c>
       <c r="L6">
         <v>10.94486180817282</v>
@@ -674,7 +674,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-16.26560880342163</v>
+        <v>14.85030156548237</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.053337335586548</v>
+        <v>64.2725909948349</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -695,13 +695,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>6.407713055610657</v>
+        <v>14.64131593704224</v>
       </c>
       <c r="J7">
-        <v>-48.89055645465851</v>
+        <v>34.06191146373749</v>
       </c>
       <c r="K7">
-        <v>-48.0921596288681</v>
+        <v>20.59826564788818</v>
       </c>
       <c r="L7">
         <v>10.94486180817282</v>
@@ -724,7 +724,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-16.10616436612236</v>
+        <v>14.38553132440938</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.086010813713074</v>
+        <v>64.25316953659058</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -745,13 +745,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>6.377492427825928</v>
+        <v>14.60904049873352</v>
       </c>
       <c r="J8">
-        <v>-48.89927268028259</v>
+        <v>33.97127258777618</v>
       </c>
       <c r="K8">
-        <v>-48.11897432804108</v>
+        <v>21.09165012836456</v>
       </c>
       <c r="L8">
         <v>10.94486180817282</v>
@@ -774,7 +774,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-14.4238178851167</v>
+        <v>15.30500489911719</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9476732015609741</v>
+        <v>63.98899555206299</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -795,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>6.330997347831726</v>
+        <v>14.55940771102905</v>
       </c>
       <c r="J9">
-        <v>-49.38924181461334</v>
+        <v>33.11190140247345</v>
       </c>
       <c r="K9">
-        <v>-49.02147305011749</v>
+        <v>20.47143340110779</v>
       </c>
       <c r="L9">
         <v>10.94486180817282</v>
@@ -824,7 +824,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-11.46589212457798</v>
+        <v>19.25146876826693</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.1292674541473389</v>
+        <v>63.29695796966553</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -845,13 +845,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>6.483354091644287</v>
+        <v>14.72215282917023</v>
       </c>
       <c r="J10">
-        <v>-51.36069297790527</v>
+        <v>31.00481188297272</v>
       </c>
       <c r="K10">
-        <v>-51.87237930297852</v>
+        <v>16.81749296188354</v>
       </c>
       <c r="L10">
         <v>10.94486180817282</v>
@@ -874,7 +874,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-9.766161981559435</v>
+        <v>23.49256765301106</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-0.6806015968322754</v>
+        <v>62.61118912696838</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -895,13 +895,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>6.589540958404541</v>
+        <v>14.83576107025146</v>
       </c>
       <c r="J11">
-        <v>-53.98349905014038</v>
+        <v>28.88713479042053</v>
       </c>
       <c r="K11">
-        <v>-54.9493613243103</v>
+        <v>12.57626569271088</v>
       </c>
       <c r="L11">
         <v>10.94486180817282</v>
@@ -924,7 +924,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-9.375401323830147</v>
+        <v>24.85759347726707</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>-0.9471328258514404</v>
+        <v>62.28311800956726</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -945,13 +945,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>6.54293966293335</v>
+        <v>14.78588438034058</v>
       </c>
       <c r="J12">
-        <v>-55.27644121646881</v>
+        <v>27.98708748817444</v>
       </c>
       <c r="K12">
-        <v>-56.44125318527222</v>
+        <v>11.07244575023651</v>
       </c>
       <c r="L12">
         <v>10.94486180817282</v>
@@ -974,7 +974,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-9.506691000926139</v>
+        <v>25.03301543873749</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>-1.12610924243927</v>
+        <v>62.02623856067657</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -995,13 +995,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>6.490947246551514</v>
+        <v>14.73027169704437</v>
       </c>
       <c r="J13">
-        <v>-55.19175744056702</v>
+        <v>28.21517086029053</v>
       </c>
       <c r="K13">
-        <v>-57.56403756141663</v>
+        <v>9.888022661209106</v>
       </c>
       <c r="L13">
         <v>10.94486180817282</v>
@@ -1024,7 +1024,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-9.76961508686054</v>
+        <v>24.41382299921679</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-1.048430442810059</v>
+        <v>61.98859691619873</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1045,13 +1045,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>6.41607391834259</v>
+        <v>14.65024733543396</v>
       </c>
       <c r="J14">
-        <v>-54.24193513393402</v>
+        <v>29.01511704921722</v>
       </c>
       <c r="K14">
-        <v>-57.64688014984131</v>
+        <v>9.684293508529663</v>
       </c>
       <c r="L14">
         <v>10.94486180817282</v>
@@ -1074,7 +1074,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-9.941163890847974</v>
+        <v>23.88713060604277</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>-0.808897852897644</v>
+        <v>62.06834614276886</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>6.304742097854614</v>
+        <v>14.53139305114746</v>
       </c>
       <c r="J15">
-        <v>-53.47002398967743</v>
+        <v>29.60489523410797</v>
       </c>
       <c r="K15">
-        <v>-57.20019900798798</v>
+        <v>9.995007991790771</v>
       </c>
       <c r="L15">
         <v>10.94486180817282</v>
@@ -1124,7 +1124,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-10.05301871215602</v>
+        <v>23.64691552854129</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>-0.9695695638656616</v>
+        <v>62.05498278141022</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>6.413556218147278</v>
+        <v>14.6475578546524</v>
       </c>
       <c r="J16">
-        <v>-53.33314919471741</v>
+        <v>29.73841512203217</v>
       </c>
       <c r="K16">
-        <v>-57.3012284040451</v>
+        <v>9.983206152915955</v>
       </c>
       <c r="L16">
         <v>10.94486180817282</v>
@@ -1174,7 +1174,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-10.16484558789693</v>
+        <v>23.42173252939392</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>-1.183626055717468</v>
+        <v>62.03431844711304</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>6.554604530334473</v>
+        <v>14.79836642742157</v>
       </c>
       <c r="J17">
-        <v>-53.26251769065857</v>
+        <v>29.82449352741241</v>
       </c>
       <c r="K17">
-        <v>-57.4533154964447</v>
+        <v>9.953213214874268</v>
       </c>
       <c r="L17">
         <v>10.94486180817282</v>
@@ -1224,7 +1224,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-10.46309461325495</v>
+        <v>22.59416152808262</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1236,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>-0.9467613697052002</v>
+        <v>62.25078940391541</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1245,13 +1245,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>6.540995359420776</v>
+        <v>14.78380405902863</v>
       </c>
       <c r="J18">
-        <v>-52.44827771186829</v>
+        <v>30.40887117385864</v>
       </c>
       <c r="K18">
-        <v>-56.45097672939301</v>
+        <v>10.92545413970947</v>
       </c>
       <c r="L18">
         <v>10.94486180817282</v>
@@ -1274,7 +1274,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-10.5806766469284</v>
+        <v>22.26419300870475</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>-0.9132874011993408</v>
+        <v>62.37529492378235</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1295,13 +1295,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>6.604041576385498</v>
+        <v>14.85128676891327</v>
       </c>
       <c r="J19">
-        <v>-52.28996860980988</v>
+        <v>30.49361562728882</v>
       </c>
       <c r="K19">
-        <v>-55.9271422624588</v>
+        <v>11.51665568351746</v>
       </c>
       <c r="L19">
         <v>10.94486180817282</v>
@@ -1324,7 +1324,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-9.942172894986015</v>
+        <v>23.42716732119152</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>-0.9057048559188843</v>
+        <v>62.37637031078339</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>6.591673612594604</v>
+        <v>14.83804428577423</v>
       </c>
       <c r="J20">
-        <v>-53.63475215435028</v>
+        <v>29.29988694190979</v>
       </c>
       <c r="K20">
-        <v>-55.96534729003906</v>
+        <v>11.51592206954956</v>
       </c>
       <c r="L20">
         <v>10.94486180817282</v>
@@ -1374,7 +1374,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-9.24502004647934</v>
+        <v>25.84974314591454</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>-1.388172507286072</v>
+        <v>62.02113664150238</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1395,13 +1395,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>6.662915945053101</v>
+        <v>14.91435158252716</v>
       </c>
       <c r="J21">
-        <v>-56.5741879940033</v>
+        <v>27.13181865215302</v>
       </c>
       <c r="K21">
-        <v>-57.74955999851227</v>
+        <v>9.942639827728271</v>
       </c>
       <c r="L21">
         <v>10.94486180817282</v>
@@ -1424,7 +1424,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-9.283099508225177</v>
+        <v>27.18555382835257</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>-2.003084540367126</v>
+        <v>61.65805673599243</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1445,13 +1445,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>6.823388814926147</v>
+        <v>15.08648085594177</v>
       </c>
       <c r="J22">
-        <v>-58.49073386192322</v>
+        <v>25.94317972660065</v>
       </c>
       <c r="K22">
-        <v>-59.606818318367</v>
+        <v>8.37472128868103</v>
       </c>
       <c r="L22">
         <v>10.94486180817282</v>
@@ -1474,7 +1474,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-9.488988295630179</v>
+        <v>28.07945376405041</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>-2.561402678489685</v>
+        <v>61.36943030357361</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1495,13 +1495,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>6.996102929115295</v>
+        <v>15.27212595939636</v>
       </c>
       <c r="J23">
-        <v>-59.97168600559235</v>
+        <v>25.08505177497864</v>
       </c>
       <c r="K23">
-        <v>-61.12395787239075</v>
+        <v>7.149543881416321</v>
       </c>
       <c r="L23">
         <v>10.94486180817282</v>
@@ -1524,7 +1524,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-9.600304425980539</v>
+        <v>28.35238135990949</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>-2.858789205551147</v>
+        <v>61.25425064563751</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1545,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>7.11737596988678</v>
+        <v>15.40271854400635</v>
       </c>
       <c r="J24">
-        <v>-60.54090583324432</v>
+        <v>24.76133465766907</v>
       </c>
       <c r="K24">
-        <v>-61.75127637386322</v>
+        <v>6.685088038444519</v>
       </c>
       <c r="L24">
         <v>10.94486180817282</v>
@@ -1574,7 +1574,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-9.34320657814942</v>
+        <v>26.18447377310076</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>-2.422275543212891</v>
+        <v>61.76413881778717</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1595,13 +1595,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>7.20659077167511</v>
+        <v>15.49891638755798</v>
       </c>
       <c r="J25">
-        <v>-57.7165333032608</v>
+        <v>26.41545653343201</v>
       </c>
       <c r="K25">
-        <v>-59.21585619449615</v>
+        <v>9.031234264373779</v>
       </c>
       <c r="L25">
         <v>10.94486180817282</v>

--- a/group2 project/results/res_bus/q_mvar.xlsx
+++ b/group2 project/results/res_bus/q_mvar.xlsx
@@ -424,7 +424,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.07577633059918</v>
+        <v>65.0933347143764</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.22741186618805</v>
+        <v>111.4415081739426</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>15.05842864513397</v>
+        <v>33.90676093101501</v>
       </c>
       <c r="J2">
-        <v>30.88839161396027</v>
+        <v>23.73373818397522</v>
       </c>
       <c r="K2">
-        <v>16.64553451538086</v>
+        <v>13.53249561786652</v>
       </c>
       <c r="L2">
         <v>10.94486180817282</v>
@@ -474,7 +474,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.85542519117371</v>
+        <v>62.88228458109916</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -486,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>63.63942337036133</v>
+        <v>111.9140541553497</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>15.13898193836212</v>
+        <v>34.41623687744141</v>
       </c>
       <c r="J3">
-        <v>32.20508885383606</v>
+        <v>24.73254895210266</v>
       </c>
       <c r="K3">
-        <v>18.5420640707016</v>
+        <v>15.35366725921631</v>
       </c>
       <c r="L3">
         <v>10.94486180817282</v>
@@ -524,7 +524,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.98061855294873</v>
+        <v>62.96438829882936</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>63.99045717716217</v>
+        <v>112.2823359966278</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>15.04914534091949</v>
+        <v>34.67719101905823</v>
       </c>
       <c r="J4">
-        <v>33.32949483394623</v>
+        <v>25.51641476154327</v>
       </c>
       <c r="K4">
-        <v>18.30558180809021</v>
+        <v>15.04389727115631</v>
       </c>
       <c r="L4">
         <v>10.94486180817282</v>
@@ -574,7 +574,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.87606567061084</v>
+        <v>62.84512054764491</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>64.19250726699829</v>
+        <v>112.4855961799622</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>14.81450164318085</v>
+        <v>34.63815772533417</v>
       </c>
       <c r="J5">
-        <v>33.91446316242218</v>
+        <v>25.93167185783386</v>
       </c>
       <c r="K5">
-        <v>18.52396762371063</v>
+        <v>15.21130514144897</v>
       </c>
       <c r="L5">
         <v>10.94486180817282</v>
@@ -624,7 +624,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.64085564568813</v>
+        <v>62.6110206978301</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>64.28613674640656</v>
+        <v>112.5782541036606</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -645,13 +645,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>14.64131593704224</v>
+        <v>34.55391812324524</v>
       </c>
       <c r="J6">
-        <v>34.15962672233582</v>
+        <v>26.11307632923126</v>
       </c>
       <c r="K6">
-        <v>18.87422263622284</v>
+        <v>15.53505384922028</v>
       </c>
       <c r="L6">
         <v>10.94486180817282</v>
@@ -674,7 +674,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.85030156548237</v>
+        <v>60.88687433668565</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>64.2725909948349</v>
+        <v>112.5843144655228</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -695,13 +695,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>14.64131593704224</v>
+        <v>34.55053949356079</v>
       </c>
       <c r="J7">
-        <v>34.06191146373749</v>
+        <v>26.11169612407684</v>
       </c>
       <c r="K7">
-        <v>20.59826564788818</v>
+        <v>17.26353168487549</v>
       </c>
       <c r="L7">
         <v>10.94486180817282</v>
@@ -724,7 +724,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.38553132440938</v>
+        <v>60.44338134656027</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>64.25316953659058</v>
+        <v>112.5670640468597</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -745,13 +745,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>14.60904049873352</v>
+        <v>34.49979865550995</v>
       </c>
       <c r="J8">
-        <v>33.97127258777618</v>
+        <v>26.06681990623474</v>
       </c>
       <c r="K8">
-        <v>21.09165012836456</v>
+        <v>17.76005554199219</v>
       </c>
       <c r="L8">
         <v>10.94486180817282</v>
@@ -774,7 +774,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.30500489911719</v>
+        <v>61.35889125206268</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>63.98899555206299</v>
+        <v>112.2715930938721</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -795,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>14.55940771102905</v>
+        <v>34.17254543304443</v>
       </c>
       <c r="J9">
-        <v>33.11190140247345</v>
+        <v>25.42989027500153</v>
       </c>
       <c r="K9">
-        <v>20.47143340110779</v>
+        <v>17.18862426280975</v>
       </c>
       <c r="L9">
         <v>10.94486180817282</v>
@@ -824,7 +824,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.25146876826693</v>
+        <v>65.26545644046018</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>63.29695796966553</v>
+        <v>111.4937838315964</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -845,13 +845,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14.72215282917023</v>
+        <v>33.62367534637451</v>
       </c>
       <c r="J10">
-        <v>31.00481188297272</v>
+        <v>23.81232762336731</v>
       </c>
       <c r="K10">
-        <v>16.81749296188354</v>
+        <v>13.67571091651917</v>
       </c>
       <c r="L10">
         <v>10.94486180817282</v>
@@ -874,7 +874,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.49256765301106</v>
+        <v>69.52732898053364</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>62.61118912696838</v>
+        <v>110.7118648290634</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -895,13 +895,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>14.83576107025146</v>
+        <v>33.04508292675018</v>
       </c>
       <c r="J11">
-        <v>28.88713479042053</v>
+        <v>22.20508444309235</v>
       </c>
       <c r="K11">
-        <v>12.57626569271088</v>
+        <v>9.578214287757874</v>
       </c>
       <c r="L11">
         <v>10.94486180817282</v>
@@ -924,7 +924,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.85759347726707</v>
+        <v>70.93259731582657</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>62.28311800956726</v>
+        <v>110.3363039493561</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -945,13 +945,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>14.78588438034058</v>
+        <v>32.66748857498169</v>
       </c>
       <c r="J12">
-        <v>27.98708748817444</v>
+        <v>21.58015191555023</v>
       </c>
       <c r="K12">
-        <v>11.07244575023651</v>
+        <v>8.139475464820862</v>
       </c>
       <c r="L12">
         <v>10.94486180817282</v>
@@ -974,7 +974,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.03301543873749</v>
+        <v>71.14714724622354</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>62.02623856067657</v>
+        <v>110.0406731367111</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -995,13 +995,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>14.73027169704437</v>
+        <v>32.36169445514679</v>
       </c>
       <c r="J13">
-        <v>28.21517086029053</v>
+        <v>21.99669444561005</v>
       </c>
       <c r="K13">
-        <v>9.888022661209106</v>
+        <v>7.011850833892822</v>
       </c>
       <c r="L13">
         <v>10.94486180817282</v>
@@ -1024,7 +1024,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.41382299921679</v>
+        <v>70.53810752055688</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>61.98859691619873</v>
+        <v>109.9915798902512</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1045,13 +1045,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>14.65024733543396</v>
+        <v>32.24607801437378</v>
       </c>
       <c r="J14">
-        <v>29.01511704921722</v>
+        <v>22.8040212392807</v>
       </c>
       <c r="K14">
-        <v>9.684293508529663</v>
+        <v>6.819340586662292</v>
       </c>
       <c r="L14">
         <v>10.94486180817282</v>
@@ -1074,7 +1074,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.88713060604277</v>
+        <v>70.00658219742036</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>62.06834614276886</v>
+        <v>110.0725702047348</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>14.53139305114746</v>
+        <v>32.20220446586609</v>
       </c>
       <c r="J15">
-        <v>29.60489523410797</v>
+        <v>23.32365560531616</v>
       </c>
       <c r="K15">
-        <v>9.995007991790771</v>
+        <v>7.112635374069214</v>
       </c>
       <c r="L15">
         <v>10.94486180817282</v>
@@ -1124,7 +1124,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.64691552854129</v>
+        <v>69.76635424906817</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>62.05498278141022</v>
+        <v>110.0665476322174</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.6475578546524</v>
+        <v>32.31143569946289</v>
       </c>
       <c r="J16">
-        <v>29.73841512203217</v>
+        <v>23.4561333656311</v>
       </c>
       <c r="K16">
-        <v>9.983206152915955</v>
+        <v>7.109052300453186</v>
       </c>
       <c r="L16">
         <v>10.94486180817282</v>
@@ -1174,7 +1174,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.42173252939392</v>
+        <v>69.54118974798985</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>62.03431844711304</v>
+        <v>110.0550218820572</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.79836642742157</v>
+        <v>32.44962024688721</v>
       </c>
       <c r="J17">
-        <v>29.82449352741241</v>
+        <v>23.54602193832397</v>
       </c>
       <c r="K17">
-        <v>9.953213214874268</v>
+        <v>7.089839577674866</v>
       </c>
       <c r="L17">
         <v>10.94486180817282</v>
@@ -1224,7 +1224,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.59416152808262</v>
+        <v>68.69197304974477</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1236,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>62.25078940391541</v>
+        <v>110.2991166114807</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1245,13 +1245,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>14.78380405902863</v>
+        <v>32.64772689342499</v>
       </c>
       <c r="J18">
-        <v>30.40887117385864</v>
+        <v>23.95540714263916</v>
       </c>
       <c r="K18">
-        <v>10.92545413970947</v>
+        <v>8.018659353256226</v>
       </c>
       <c r="L18">
         <v>10.94486180817282</v>
@@ -1274,7 +1274,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.26419300870475</v>
+        <v>68.3466828652472</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>62.37529492378235</v>
+        <v>110.4454981088638</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1295,13 +1295,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>14.85128676891327</v>
+        <v>32.84017062187195</v>
       </c>
       <c r="J19">
-        <v>30.49361562728882</v>
+        <v>23.94261145591736</v>
       </c>
       <c r="K19">
-        <v>11.51665568351746</v>
+        <v>8.585562109947205</v>
       </c>
       <c r="L19">
         <v>10.94486180817282</v>
@@ -1324,7 +1324,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.42716732119152</v>
+        <v>69.49666655869078</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>62.37637031078339</v>
+        <v>110.4458416700363</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.83804428577423</v>
+        <v>32.82030010223389</v>
       </c>
       <c r="J20">
-        <v>29.29988694190979</v>
+        <v>22.78108108043671</v>
       </c>
       <c r="K20">
-        <v>11.51592206954956</v>
+        <v>8.574025273323059</v>
       </c>
       <c r="L20">
         <v>10.94486180817282</v>
@@ -1374,7 +1374,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.84974314591454</v>
+        <v>71.9577080555955</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>62.02113664150238</v>
+        <v>110.0497258901596</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1395,13 +1395,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>14.91435158252716</v>
+        <v>32.5433177947998</v>
       </c>
       <c r="J21">
-        <v>27.13181865215302</v>
+        <v>20.94118082523346</v>
       </c>
       <c r="K21">
-        <v>9.942639827728271</v>
+        <v>7.066733479499817</v>
       </c>
       <c r="L21">
         <v>10.94486180817282</v>
@@ -1424,7 +1424,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.18555382835257</v>
+        <v>73.34722074041565</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>61.65805673599243</v>
+        <v>109.6521730422974</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1445,13 +1445,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>15.08648085594177</v>
+        <v>32.36775958538055</v>
       </c>
       <c r="J22">
-        <v>25.94317972660065</v>
+        <v>20.0566303730011</v>
       </c>
       <c r="K22">
-        <v>8.37472128868103</v>
+        <v>5.577640771865845</v>
       </c>
       <c r="L22">
         <v>10.94486180817282</v>
@@ -1474,7 +1474,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.07945376405041</v>
+        <v>74.28690701414416</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>61.36943030357361</v>
+        <v>109.3401387929916</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1495,13 +1495,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>15.27212595939636</v>
+        <v>32.28172290325165</v>
       </c>
       <c r="J23">
-        <v>25.08505177497864</v>
+        <v>19.43602120876312</v>
       </c>
       <c r="K23">
-        <v>7.149543881416321</v>
+        <v>4.417166709899902</v>
       </c>
       <c r="L23">
         <v>10.94486180817282</v>
@@ -1524,7 +1524,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.35238135990949</v>
+        <v>74.57640858193918</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>61.25425064563751</v>
+        <v>109.2202410697937</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1545,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>15.40271854400635</v>
+        <v>32.3069521188736</v>
       </c>
       <c r="J24">
-        <v>24.76133465766907</v>
+        <v>19.20245742797852</v>
       </c>
       <c r="K24">
-        <v>6.685088038444519</v>
+        <v>3.980450868606567</v>
       </c>
       <c r="L24">
         <v>10.94486180817282</v>
@@ -1574,7 +1574,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.18447377310076</v>
+        <v>72.31220011532605</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>61.76413881778717</v>
+        <v>109.805584192276</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1595,13 +1595,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>15.49891638755798</v>
+        <v>32.90310072898865</v>
       </c>
       <c r="J25">
-        <v>26.41545653343201</v>
+        <v>20.40261697769165</v>
       </c>
       <c r="K25">
-        <v>9.031234264373779</v>
+        <v>6.228049278259277</v>
       </c>
       <c r="L25">
         <v>10.94486180817282</v>

--- a/group2 project/results/res_bus/q_mvar.xlsx
+++ b/group2 project/results/res_bus/q_mvar.xlsx
@@ -424,7 +424,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>65.0933347143764</v>
+        <v>46.16748940406251</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>111.4415081739426</v>
+        <v>110.0290523767471</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>33.90676093101501</v>
+        <v>51.36856651306152</v>
       </c>
       <c r="J2">
-        <v>23.73373818397522</v>
+        <v>23.17655599117279</v>
       </c>
       <c r="K2">
-        <v>13.53249561786652</v>
+        <v>12.89958465099335</v>
       </c>
       <c r="L2">
         <v>10.94486180817282</v>
@@ -474,7 +474,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>62.88228458109916</v>
+        <v>43.60261143407661</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -486,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>111.9140541553497</v>
+        <v>110.4455714225769</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>34.41623687744141</v>
+        <v>52.08560562133789</v>
       </c>
       <c r="J3">
-        <v>24.73254895210266</v>
+        <v>24.11791467666626</v>
       </c>
       <c r="K3">
-        <v>15.35366725921631</v>
+        <v>14.67134952545166</v>
       </c>
       <c r="L3">
         <v>10.94486180817282</v>
@@ -524,7 +524,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>62.96438829882936</v>
+        <v>43.95248131707376</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>112.2823359966278</v>
+        <v>110.830887556076</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>34.67719101905823</v>
+        <v>52.10620939731598</v>
       </c>
       <c r="J4">
-        <v>25.51641476154327</v>
+        <v>24.90840172767639</v>
       </c>
       <c r="K4">
-        <v>15.04389727115631</v>
+        <v>14.36756181716919</v>
       </c>
       <c r="L4">
         <v>10.94486180817282</v>
@@ -574,7 +574,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>62.84512054764491</v>
+        <v>44.54332154912845</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>112.4855961799622</v>
+        <v>111.1066139936447</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>34.63815772533417</v>
+        <v>51.44108867645264</v>
       </c>
       <c r="J5">
-        <v>25.93167185783386</v>
+        <v>25.35288536548615</v>
       </c>
       <c r="K5">
-        <v>15.21130514144897</v>
+        <v>14.56564688682556</v>
       </c>
       <c r="L5">
         <v>10.94486180817282</v>
@@ -624,7 +624,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>62.6110206978301</v>
+        <v>44.82914441899629</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>112.5782541036606</v>
+        <v>111.2533802986145</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -645,13 +645,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>34.55391812324524</v>
+        <v>50.89379394054413</v>
       </c>
       <c r="J6">
-        <v>26.11307632923126</v>
+        <v>25.55463826656342</v>
       </c>
       <c r="K6">
-        <v>15.53505384922028</v>
+        <v>14.91156375408173</v>
       </c>
       <c r="L6">
         <v>10.94486180817282</v>
@@ -674,7 +674,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>60.88687433668565</v>
+        <v>43.03911501550829</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>112.5843144655228</v>
+        <v>111.2521994113922</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -695,13 +695,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>34.55053949356079</v>
+        <v>50.88704538345337</v>
       </c>
       <c r="J7">
-        <v>26.11169612407684</v>
+        <v>25.52816152572632</v>
       </c>
       <c r="K7">
-        <v>17.26353168487549</v>
+        <v>16.62175238132477</v>
       </c>
       <c r="L7">
         <v>10.94486180817282</v>
@@ -724,7 +724,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>60.44338134656027</v>
+        <v>42.67879587397874</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>112.5670640468597</v>
+        <v>111.2446665763855</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -745,13 +745,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>34.49979865550995</v>
+        <v>50.74931299686432</v>
       </c>
       <c r="J8">
-        <v>26.06681990623474</v>
+        <v>25.48218643665314</v>
       </c>
       <c r="K8">
-        <v>17.76005554199219</v>
+        <v>17.11912178993225</v>
       </c>
       <c r="L8">
         <v>10.94486180817282</v>
@@ -774,7 +774,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>61.35889125206268</v>
+        <v>43.79046449522684</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>112.2715930938721</v>
+        <v>110.980545759201</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -795,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>34.17254543304443</v>
+        <v>50.29239797592163</v>
       </c>
       <c r="J9">
-        <v>25.42989027500153</v>
+        <v>24.87215793132782</v>
       </c>
       <c r="K9">
-        <v>17.18862426280975</v>
+        <v>16.57189047336578</v>
       </c>
       <c r="L9">
         <v>10.94486180817282</v>
@@ -824,7 +824,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>65.26545644046018</v>
+        <v>47.37179880942494</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>111.4937838315964</v>
+        <v>110.1932618618011</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -845,13 +845,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>33.62367534637451</v>
+        <v>50.18911325931549</v>
       </c>
       <c r="J10">
-        <v>23.81232762336731</v>
+        <v>23.30446016788483</v>
       </c>
       <c r="K10">
-        <v>13.67571091651917</v>
+        <v>13.09374070167542</v>
       </c>
       <c r="L10">
         <v>10.94486180817282</v>
@@ -874,7 +874,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>69.52732898053364</v>
+        <v>51.48168642928795</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>110.7118648290634</v>
+        <v>109.4196938276291</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -895,13 +895,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>33.04508292675018</v>
+        <v>49.9255610704422</v>
       </c>
       <c r="J11">
-        <v>22.20508444309235</v>
+        <v>21.76256930828094</v>
       </c>
       <c r="K11">
-        <v>9.578214287757874</v>
+        <v>9.044375658035278</v>
       </c>
       <c r="L11">
         <v>10.94486180817282</v>
@@ -924,7 +924,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>70.93259731582657</v>
+        <v>53.10579382179822</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>110.3363039493561</v>
+        <v>109.078875541687</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -945,13 +945,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>32.66748857498169</v>
+        <v>49.41969001293182</v>
       </c>
       <c r="J12">
-        <v>21.58015191555023</v>
+        <v>21.17377579212189</v>
       </c>
       <c r="K12">
-        <v>8.139475464820862</v>
+        <v>7.637016534805298</v>
       </c>
       <c r="L12">
         <v>10.94486180817282</v>
@@ -974,7 +974,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>71.14714724622354</v>
+        <v>53.50864612417354</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>110.0406731367111</v>
+        <v>108.8093898296356</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -995,13 +995,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>32.36169445514679</v>
+        <v>48.97060418128967</v>
       </c>
       <c r="J13">
-        <v>21.99669444561005</v>
+        <v>21.61095023155212</v>
       </c>
       <c r="K13">
-        <v>7.011850833892822</v>
+        <v>6.530222773551941</v>
       </c>
       <c r="L13">
         <v>10.94486180817282</v>
@@ -1024,7 +1024,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>70.53810752055688</v>
+        <v>53.12059195717484</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>109.9915798902512</v>
+        <v>108.782541513443</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1045,13 +1045,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>32.24607801437378</v>
+        <v>48.64319276809692</v>
       </c>
       <c r="J14">
-        <v>22.8040212392807</v>
+        <v>22.42372572422028</v>
       </c>
       <c r="K14">
-        <v>6.819340586662292</v>
+        <v>6.346652984619141</v>
       </c>
       <c r="L14">
         <v>10.94486180817282</v>
@@ -1074,7 +1074,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>70.00658219742036</v>
+        <v>52.92441167664765</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>110.0725702047348</v>
+        <v>108.8951833248138</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>32.20220446586609</v>
+        <v>48.28096687793732</v>
       </c>
       <c r="J15">
-        <v>23.32365560531616</v>
+        <v>22.94952356815338</v>
       </c>
       <c r="K15">
-        <v>7.112635374069214</v>
+        <v>6.649441003799438</v>
       </c>
       <c r="L15">
         <v>10.94486180817282</v>
@@ -1124,7 +1124,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>69.76635424906817</v>
+        <v>52.32623580147265</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>110.0665476322174</v>
+        <v>108.8515141010284</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>32.31143569946289</v>
+        <v>48.70133566856384</v>
       </c>
       <c r="J16">
-        <v>23.4561333656311</v>
+        <v>23.0654444694519</v>
       </c>
       <c r="K16">
-        <v>7.109052300453186</v>
+        <v>6.629059791564941</v>
       </c>
       <c r="L16">
         <v>10.94486180817282</v>
@@ -1174,7 +1174,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>69.54118974798985</v>
+        <v>51.63867588068024</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>110.0550218820572</v>
+        <v>108.7909594774246</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>32.44962024688721</v>
+        <v>49.24281930923462</v>
       </c>
       <c r="J17">
-        <v>23.54602193832397</v>
+        <v>23.13435959815979</v>
       </c>
       <c r="K17">
-        <v>7.089839577674866</v>
+        <v>6.588289618492126</v>
       </c>
       <c r="L17">
         <v>10.94486180817282</v>
@@ -1224,7 +1224,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>68.69197304974477</v>
+        <v>50.79171067350217</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1236,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>110.2991166114807</v>
+        <v>109.0281347036362</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1245,13 +1245,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>32.64772689342499</v>
+        <v>49.39900290966034</v>
       </c>
       <c r="J18">
-        <v>23.95540714263916</v>
+        <v>23.52727448940277</v>
       </c>
       <c r="K18">
-        <v>8.018659353256226</v>
+        <v>7.503948926925659</v>
       </c>
       <c r="L18">
         <v>10.94486180817282</v>
@@ -1274,7 +1274,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>68.3466828652472</v>
+        <v>50.22294633708952</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>110.4454981088638</v>
+        <v>109.1468261480331</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1295,13 +1295,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>32.84017062187195</v>
+        <v>49.76924443244934</v>
       </c>
       <c r="J19">
-        <v>23.94261145591736</v>
+        <v>23.49616575241089</v>
       </c>
       <c r="K19">
-        <v>8.585562109947205</v>
+        <v>8.053111791610718</v>
       </c>
       <c r="L19">
         <v>10.94486180817282</v>
@@ -1324,7 +1324,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>69.49666655869078</v>
+        <v>51.45509313308685</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>110.4458416700363</v>
+        <v>109.1592726707458</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>32.82030010223389</v>
+        <v>49.71204161643982</v>
       </c>
       <c r="J20">
-        <v>22.78108108043671</v>
+        <v>22.34852719306946</v>
       </c>
       <c r="K20">
-        <v>8.574025273323059</v>
+        <v>8.050723791122437</v>
       </c>
       <c r="L20">
         <v>10.94486180817282</v>
@@ -1374,7 +1374,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>71.9577080555955</v>
+        <v>53.79503551165726</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>110.0497258901596</v>
+        <v>108.7651250362396</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1395,13 +1395,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>32.5433177947998</v>
+        <v>49.64154195785522</v>
       </c>
       <c r="J21">
-        <v>20.94118082523346</v>
+        <v>20.54062652587891</v>
       </c>
       <c r="K21">
-        <v>7.066733479499817</v>
+        <v>6.564741611480713</v>
       </c>
       <c r="L21">
         <v>10.94486180817282</v>
@@ -1424,7 +1424,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>73.34722074041565</v>
+        <v>54.73844762309454</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>109.6521730422974</v>
+        <v>108.3314599990845</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1445,13 +1445,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>32.36775958538055</v>
+        <v>49.92917191982269</v>
       </c>
       <c r="J22">
-        <v>20.0566303730011</v>
+        <v>19.66533887386322</v>
       </c>
       <c r="K22">
-        <v>5.577640771865845</v>
+        <v>5.07741117477417</v>
       </c>
       <c r="L22">
         <v>10.94486180817282</v>
@@ -1474,7 +1474,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>74.28690701414416</v>
+        <v>55.1727860473693</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>109.3401387929916</v>
+        <v>107.973271727562</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1495,13 +1495,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>32.28172290325165</v>
+        <v>50.34068858623505</v>
       </c>
       <c r="J23">
-        <v>19.43602120876312</v>
+        <v>19.04461634159088</v>
       </c>
       <c r="K23">
-        <v>4.417166709899902</v>
+        <v>3.910771131515503</v>
       </c>
       <c r="L23">
         <v>10.94486180817282</v>
@@ -1524,7 +1524,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>74.57640858193918</v>
+        <v>55.08814650893692</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>109.2202410697937</v>
+        <v>107.815279006958</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1545,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>32.3069521188736</v>
+        <v>50.71421527862549</v>
       </c>
       <c r="J24">
-        <v>19.20245742797852</v>
+        <v>18.80286824703217</v>
       </c>
       <c r="K24">
-        <v>3.980450868606567</v>
+        <v>3.46308970451355</v>
       </c>
       <c r="L24">
         <v>10.94486180817282</v>
@@ -1574,7 +1574,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>72.31220011532605</v>
+        <v>52.41374612631262</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>109.805584192276</v>
+        <v>108.335921049118</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1595,13 +1595,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>32.90310072898865</v>
+        <v>51.55812072753906</v>
       </c>
       <c r="J25">
-        <v>20.40261697769165</v>
+        <v>19.93945348262787</v>
       </c>
       <c r="K25">
-        <v>6.228049278259277</v>
+        <v>5.655738711357117</v>
       </c>
       <c r="L25">
         <v>10.94486180817282</v>
